--- a/dados/dados brutos formatados.xlsx
+++ b/dados/dados brutos formatados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpalbino/Downloads/Tese Priscilla/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpalbino/Library/Mobile Documents/com~apple~CloudDocs/GitHub/espaco-virtual-e-geracoes/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E378B0B-E561-CB41-B383-7549B4CC9DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477A471-620A-E74F-8889-07EA5845CCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24900" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados brutos" sheetId="1" r:id="rId1"/>
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21953,8 +21953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7D56C-C788-7E49-8EE6-96F25185ADEA}">
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E16"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
